--- a/n of 1/My n of 1/Food Logs/CSV-Exports/2018-06-11_150-Days-Cronometer/pyCronCrunch_Weight-Total_Cals.xlsx
+++ b/n of 1/My n of 1/Food Logs/CSV-Exports/2018-06-11_150-Days-Cronometer/pyCronCrunch_Weight-Total_Cals.xlsx
@@ -1762,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113120384"/>
-        <c:axId val="112838528"/>
+        <c:axId val="114571520"/>
+        <c:axId val="114577408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113120384"/>
+        <c:axId val="114571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,12 +1776,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112838528"/>
+        <c:crossAx val="114577408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112838528"/>
+        <c:axId val="114577408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,7 +1792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113120384"/>
+        <c:crossAx val="114571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,7 +1844,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2997,11 +2996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47730048"/>
-        <c:axId val="47732608"/>
+        <c:axId val="117208192"/>
+        <c:axId val="117210112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47730048"/>
+        <c:axId val="117208192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3042,12 +3040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47732608"/>
+        <c:crossAx val="117210112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47732608"/>
+        <c:axId val="117210112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3069,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3088,14 +3085,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47730048"/>
+        <c:crossAx val="117208192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3472,7 +3468,7 @@
   <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="F1:F179 A1:A179"/>
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
